--- a/data/card/美食大全.xlsx
+++ b/data/card/美食大全.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1279">
   <si>
     <t>上等佳肴（23/23）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -375,12 +375,6 @@
   </si>
   <si>
     <t>终转</t>
-  </si>
-  <si>
-    <t>普通卡</t>
-  </si>
-  <si>
-    <t>星座卡</t>
   </si>
   <si>
     <t>棉花糖</t>
@@ -4343,15 +4337,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="I283" sqref="I283"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="H282" sqref="H282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19.08203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.58203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.9140625" style="5" bestFit="1" customWidth="1"/>
@@ -4369,7 +4363,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -4398,6 +4392,9 @@
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
       <c r="L2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4408,6 +4405,9 @@
       <c r="D3" s="2"/>
       <c r="H3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -4418,6 +4418,9 @@
       <c r="D4" s="2"/>
       <c r="H4" s="2"/>
       <c r="L4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4428,6 +4431,9 @@
       <c r="D5" s="2"/>
       <c r="H5" s="2"/>
       <c r="L5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4438,6 +4444,9 @@
       <c r="D6" s="2"/>
       <c r="H6" s="2"/>
       <c r="L6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4448,6 +4457,9 @@
       <c r="D7" s="2"/>
       <c r="H7" s="2"/>
       <c r="L7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4458,6 +4470,9 @@
       <c r="D8" s="2"/>
       <c r="H8" s="2"/>
       <c r="L8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4468,6 +4483,9 @@
       <c r="D9" s="2"/>
       <c r="H9" s="2"/>
       <c r="L9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4478,6 +4496,9 @@
       <c r="D10" s="2"/>
       <c r="H10" s="2"/>
       <c r="L10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -4488,6 +4509,9 @@
       <c r="D11" s="2"/>
       <c r="H11" s="2"/>
       <c r="L11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -4498,6 +4522,9 @@
       <c r="D12" s="2"/>
       <c r="H12" s="2"/>
       <c r="L12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4508,6 +4535,9 @@
       <c r="D13" s="2"/>
       <c r="H13" s="2"/>
       <c r="L13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -4518,6 +4548,9 @@
       <c r="D14" s="2"/>
       <c r="H14" s="2"/>
       <c r="L14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -4528,6 +4561,9 @@
       <c r="D15" s="2"/>
       <c r="H15" s="2"/>
       <c r="L15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -4538,6 +4574,9 @@
       <c r="D16" s="2"/>
       <c r="H16" s="2"/>
       <c r="L16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -4551,7 +4590,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4561,7 +4600,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4571,7 +4610,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4581,7 +4620,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4591,7 +4630,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4601,7 +4640,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4611,7 +4650,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4621,7 +4660,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4639,7 +4678,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
@@ -4651,10 +4690,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4663,10 +4702,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4675,10 +4714,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4687,10 +4726,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4699,10 +4738,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4719,7 +4758,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -4739,13 +4778,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="D35" s="2"/>
       <c r="H35" s="2"/>
@@ -4759,13 +4798,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2"/>
       <c r="H36" s="2"/>
@@ -4779,13 +4818,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="2"/>
       <c r="H37" s="2"/>
@@ -4799,13 +4838,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D38" s="2"/>
       <c r="H38" s="2"/>
@@ -4819,13 +4858,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="H39" s="2"/>
@@ -4839,13 +4878,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D40" s="2"/>
       <c r="H40" s="2"/>
@@ -4859,13 +4898,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D41" s="2"/>
       <c r="H41" s="2"/>
@@ -4879,13 +4918,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="D42" s="2"/>
       <c r="H42" s="2"/>
@@ -4899,13 +4938,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D43" s="2"/>
       <c r="H43" s="2"/>
@@ -4919,13 +4958,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2"/>
       <c r="H44" s="2"/>
@@ -4939,13 +4978,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D45" s="2"/>
       <c r="H45" s="2"/>
@@ -4959,13 +4998,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D46" s="2"/>
       <c r="H46" s="2"/>
@@ -4979,13 +5018,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D47" s="2"/>
       <c r="H47" s="2"/>
@@ -4999,13 +5038,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D48" s="2"/>
       <c r="H48" s="2"/>
@@ -5019,13 +5058,13 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D49" s="2"/>
       <c r="H49" s="2"/>
@@ -5039,13 +5078,13 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D50" s="2"/>
       <c r="H50" s="2"/>
@@ -5059,13 +5098,13 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D51" s="2"/>
       <c r="H51" s="2"/>
@@ -5079,13 +5118,13 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D52" s="2"/>
       <c r="H52" s="2"/>
@@ -5099,13 +5138,13 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="D53" s="2"/>
       <c r="H53" s="2"/>
@@ -5119,13 +5158,13 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="D54" s="2"/>
       <c r="H54" s="2"/>
@@ -5139,13 +5178,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D55" s="2"/>
       <c r="H55" s="2"/>
@@ -5159,13 +5198,13 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D56" s="2"/>
       <c r="H56" s="2"/>
@@ -5179,13 +5218,13 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="D57" s="2"/>
       <c r="H57" s="2"/>
@@ -5199,13 +5238,13 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="D58" s="2"/>
       <c r="H58" s="2"/>
@@ -5219,13 +5258,13 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="D59" s="2"/>
       <c r="H59" s="2"/>
@@ -5239,13 +5278,13 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="D60" s="2"/>
       <c r="H60" s="2"/>
@@ -5273,7 +5312,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>3</v>
@@ -5293,13 +5332,13 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="D63" s="2"/>
       <c r="H63" s="2"/>
@@ -5313,13 +5352,13 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="D64" s="2"/>
       <c r="H64" s="2"/>
@@ -5333,13 +5372,13 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="D65" s="2"/>
       <c r="H65" s="2"/>
@@ -5353,13 +5392,13 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="D66" s="2"/>
       <c r="H66" s="2"/>
@@ -5373,13 +5412,13 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D67" s="2"/>
       <c r="H67" s="2"/>
@@ -5393,13 +5432,13 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D68" s="2"/>
       <c r="H68" s="2"/>
@@ -5413,13 +5452,13 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="D69" s="2"/>
       <c r="H69" s="2"/>
@@ -5433,7 +5472,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5449,10 +5488,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -5467,10 +5506,10 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -5485,13 +5524,13 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="D73" s="2"/>
       <c r="H73" s="2"/>
@@ -5505,13 +5544,13 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D74" s="2"/>
       <c r="F74" s="2"/>
@@ -5527,13 +5566,13 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="D75" s="2"/>
       <c r="F75" s="2"/>
@@ -5549,13 +5588,13 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5572,10 +5611,10 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -5593,10 +5632,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -5614,13 +5653,13 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5637,13 +5676,13 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5660,10 +5699,10 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -5681,13 +5720,13 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5704,13 +5743,13 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>579</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5727,10 +5766,10 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -5748,10 +5787,10 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -5769,13 +5808,13 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5792,13 +5831,13 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>599</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5815,13 +5854,13 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -6106,42 +6145,42 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6153,7 +6192,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>3</v>
@@ -6164,80 +6203,80 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6249,7 +6288,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>3</v>
@@ -6260,292 +6299,292 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,165 +6759,165 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6888,7 +6927,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>3</v>
@@ -6899,167 +6938,167 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C198" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C204" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -7069,7 +7108,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>3</v>
@@ -7080,178 +7119,178 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C211" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -7261,7 +7300,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>3</v>
@@ -7272,123 +7311,123 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -7398,7 +7437,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>3</v>
@@ -7409,134 +7448,134 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C246" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -7546,7 +7585,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>3</v>
@@ -7557,82 +7596,82 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B256" s="2" t="s">
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B257" s="2" t="s">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B258" s="2" t="s">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B259" s="2" t="s">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B260" s="2" t="s">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="B261" s="5" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="5" t="s">
+      <c r="C261" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B261" s="5" t="s">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C261" s="5" t="s">
+      <c r="B262" s="6" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="s">
+      <c r="C262" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="B262" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -7642,11 +7681,8 @@
       <c r="C263" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>11</v>
       </c>
@@ -7656,11 +7692,8 @@
       <c r="C264" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>19</v>
       </c>
@@ -7670,11 +7703,8 @@
       <c r="C265" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>27</v>
       </c>
@@ -7684,11 +7714,8 @@
       <c r="C266" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>35</v>
       </c>
@@ -7698,11 +7725,8 @@
       <c r="C267" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>43</v>
       </c>
@@ -7712,11 +7736,8 @@
       <c r="C268" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>51</v>
       </c>
@@ -7726,21 +7747,15 @@
       <c r="C269" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>65</v>
       </c>
@@ -7750,11 +7765,8 @@
       <c r="C271" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>73</v>
       </c>
@@ -7764,11 +7776,8 @@
       <c r="C272" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>81</v>
       </c>
@@ -7778,21 +7787,15 @@
       <c r="C273" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>95</v>
       </c>
@@ -7800,11 +7803,8 @@
         <v>96</v>
       </c>
       <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>99</v>
       </c>
@@ -7814,19 +7814,13 @@
       <c r="C276" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>110</v>
       </c>
@@ -7836,303 +7830,251 @@
       <c r="C278" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N278" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="O278" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="D279" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M279" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N279" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O279" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="D280" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M280" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N280" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O280" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="D281" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C281" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M281" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N281" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O281" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="D282" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M282" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N282" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O282" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="D283" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M283" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N283" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O283" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M284" s="2"/>
-      <c r="N284" s="2"/>
-      <c r="O284" s="2"/>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="D285" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M285" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="N285" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O285" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M286" s="2"/>
-      <c r="N286" s="2"/>
-      <c r="O286" s="2"/>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="D287" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M287" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="N287" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="O287" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="M288" s="2"/>
-      <c r="N288" s="2"/>
-      <c r="O288" s="2"/>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C289" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C290" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M290" s="2"/>
-      <c r="N290" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O290" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M291" s="2"/>
-      <c r="N291" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="O291" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B292" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="M292" s="2"/>
-      <c r="N292" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O292" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="M293" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="N293" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="O293" s="2" t="s">
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
+      <c r="B294" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B294" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="M294" s="2"/>
-      <c r="N294" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="O294" s="2" t="s">
-        <v>278</v>
-      </c>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8161,10 +8103,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8172,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8180,7 +8122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8188,7 +8130,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8196,7 +8138,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8204,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8212,7 +8154,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8220,7 +8162,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,7 +8170,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8236,7 +8178,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8244,7 +8186,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8252,7 +8194,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8260,7 +8202,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8268,7 +8210,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8276,7 +8218,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8284,7 +8226,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8292,7 +8234,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,7 +8242,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8308,7 +8250,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8316,7 +8258,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8324,7 +8266,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8332,7 +8274,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8340,7 +8282,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8348,7 +8290,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8356,7 +8298,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8364,7 +8306,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8372,7 +8314,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8380,7 +8322,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8388,7 +8330,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8396,7 +8338,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8404,7 +8346,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8412,7 +8354,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8420,7 +8362,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8428,7 +8370,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8436,7 +8378,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8444,7 +8386,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8452,7 +8394,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8460,7 +8402,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8468,7 +8410,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8476,7 +8418,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8484,7 +8426,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8492,7 +8434,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8500,7 +8442,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8508,7 +8450,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8516,7 +8458,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8524,7 +8466,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8532,7 +8474,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8540,7 +8482,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8548,7 +8490,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8556,7 +8498,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8564,7 +8506,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8572,7 +8514,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8580,7 +8522,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8588,7 +8530,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8596,7 +8538,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8604,7 +8546,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8612,7 +8554,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8620,7 +8562,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8628,7 +8570,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8636,7 +8578,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8644,7 +8586,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8652,7 +8594,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8660,7 +8602,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8668,7 +8610,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8676,7 +8618,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8684,7 +8626,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8692,7 +8634,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8700,7 +8642,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8708,7 +8650,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8716,7 +8658,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8724,7 +8666,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -8732,7 +8674,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8740,7 +8682,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8748,7 +8690,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -8756,7 +8698,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -8764,7 +8706,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -8772,7 +8714,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -8780,7 +8722,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -8788,7 +8730,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -8796,7 +8738,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8804,7 +8746,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8812,7 +8754,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8820,7 +8762,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8828,7 +8770,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8836,7 +8778,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8844,7 +8786,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8852,7 +8794,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8860,7 +8802,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8868,7 +8810,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8876,7 +8818,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -8884,7 +8826,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8892,7 +8834,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8900,7 +8842,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8908,7 +8850,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8916,7 +8858,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -8924,7 +8866,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8932,7 +8874,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8940,7 +8882,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8948,7 +8890,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8956,7 +8898,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8964,7 +8906,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8972,7 +8914,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8980,7 +8922,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8988,7 +8930,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8996,7 +8938,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -9004,7 +8946,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -9012,7 +8954,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -9020,7 +8962,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -9028,7 +8970,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -9036,7 +8978,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -9044,7 +8986,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -9052,7 +8994,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -9060,7 +9002,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -9068,7 +9010,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -9076,7 +9018,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -9084,7 +9026,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -9092,7 +9034,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -9100,7 +9042,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -9108,7 +9050,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -9116,7 +9058,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -9124,7 +9066,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -9132,7 +9074,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -9140,7 +9082,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -9148,7 +9090,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -9156,7 +9098,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -9164,7 +9106,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -9172,7 +9114,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -9180,7 +9122,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -9188,7 +9130,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -9196,7 +9138,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -9204,7 +9146,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -9212,7 +9154,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -9220,7 +9162,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -9228,7 +9170,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -9236,7 +9178,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -9244,7 +9186,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -9252,7 +9194,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -9260,7 +9202,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -9268,7 +9210,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -9276,7 +9218,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -9284,7 +9226,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -9292,7 +9234,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -9300,7 +9242,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -9308,7 +9250,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -9316,7 +9258,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -9324,7 +9266,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -9332,7 +9274,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -9340,7 +9282,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -9348,7 +9290,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -9356,7 +9298,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -9364,7 +9306,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -9372,7 +9314,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -9380,7 +9322,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -9388,7 +9330,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -9396,7 +9338,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -9404,7 +9346,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -9412,7 +9354,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -9420,7 +9362,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -9428,7 +9370,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -9436,7 +9378,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -9444,7 +9386,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -9452,7 +9394,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -9460,7 +9402,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -9468,7 +9410,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -9476,7 +9418,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -9484,7 +9426,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -9492,7 +9434,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -9500,7 +9442,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -9508,7 +9450,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -9516,7 +9458,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -9524,7 +9466,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -9532,7 +9474,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -9540,7 +9482,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -9548,7 +9490,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -9556,7 +9498,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -9564,7 +9506,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -9572,7 +9514,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -9580,7 +9522,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -9588,7 +9530,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -9596,7 +9538,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -9604,7 +9546,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -9612,7 +9554,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -9620,7 +9562,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -9628,7 +9570,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -9636,7 +9578,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -9644,7 +9586,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -9652,7 +9594,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -9660,7 +9602,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -9668,7 +9610,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -9676,7 +9618,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -9684,7 +9626,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -9692,7 +9634,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -9700,7 +9642,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -9708,7 +9650,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -9716,7 +9658,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -9724,7 +9666,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -9732,7 +9674,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -9740,7 +9682,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -9748,7 +9690,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -9756,7 +9698,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -9764,7 +9706,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -9772,7 +9714,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -9780,7 +9722,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -9788,7 +9730,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -9796,7 +9738,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -9804,7 +9746,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -9812,7 +9754,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -9820,7 +9762,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -9828,7 +9770,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -9836,7 +9778,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -9844,7 +9786,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -9852,7 +9794,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -9860,7 +9802,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -9868,7 +9810,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -9876,7 +9818,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -9884,7 +9826,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -9892,7 +9834,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -9900,7 +9842,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -9908,7 +9850,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -9916,7 +9858,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -9924,7 +9866,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -9932,7 +9874,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -9940,7 +9882,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -9948,7 +9890,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -9956,7 +9898,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -9964,7 +9906,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -9972,7 +9914,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -9980,7 +9922,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -9988,7 +9930,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -9996,7 +9938,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -10004,7 +9946,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -10012,7 +9954,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -10020,7 +9962,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -10028,7 +9970,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -10036,7 +9978,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -10044,7 +9986,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -10052,7 +9994,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -10060,7 +10002,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -10068,7 +10010,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -10076,7 +10018,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -10084,7 +10026,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -10092,7 +10034,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -10100,7 +10042,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -10108,7 +10050,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -10116,7 +10058,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -10124,7 +10066,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -10132,7 +10074,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -10140,7 +10082,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -10148,7 +10090,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -10156,7 +10098,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -10164,7 +10106,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -10172,7 +10114,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -10180,7 +10122,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -10188,7 +10130,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -10196,7 +10138,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -10204,7 +10146,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -10212,7 +10154,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -10220,7 +10162,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -10228,7 +10170,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -10236,7 +10178,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -10244,7 +10186,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -10252,7 +10194,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -10260,7 +10202,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -10268,7 +10210,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -10276,7 +10218,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -10284,7 +10226,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -10292,7 +10234,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -10300,7 +10242,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -10308,7 +10250,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -10316,7 +10258,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -10324,7 +10266,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -10332,7 +10274,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -10340,7 +10282,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -10348,7 +10290,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -10356,7 +10298,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -10364,7 +10306,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -10372,7 +10314,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -10380,7 +10322,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -10388,7 +10330,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -10396,7 +10338,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -10404,7 +10346,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -10412,7 +10354,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -10420,7 +10362,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -10428,7 +10370,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -10436,7 +10378,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -10444,7 +10386,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -10452,7 +10394,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -10460,7 +10402,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -10468,7 +10410,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -10476,7 +10418,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -10484,7 +10426,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -10492,7 +10434,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -10500,7 +10442,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -10508,7 +10450,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -10516,7 +10458,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -10524,7 +10466,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -10532,7 +10474,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -10540,7 +10482,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -10548,7 +10490,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -10556,7 +10498,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -10564,7 +10506,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -10572,7 +10514,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -10580,7 +10522,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -10588,7 +10530,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -10596,7 +10538,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -10604,7 +10546,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -10612,7 +10554,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -10620,7 +10562,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -10628,7 +10570,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -10636,7 +10578,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -10644,7 +10586,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -10652,7 +10594,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -10660,7 +10602,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -10668,7 +10610,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -10676,7 +10618,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -10684,7 +10626,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -10692,7 +10634,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -10700,7 +10642,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -10708,7 +10650,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -10716,7 +10658,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -10724,7 +10666,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -10732,7 +10674,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -10740,7 +10682,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -10748,7 +10690,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -10756,7 +10698,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -10764,7 +10706,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -10772,7 +10714,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -10780,7 +10722,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -10788,7 +10730,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -10796,7 +10738,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -10804,7 +10746,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -10812,7 +10754,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -10820,7 +10762,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -10828,7 +10770,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -10836,7 +10778,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -10844,7 +10786,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -10852,7 +10794,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -10860,7 +10802,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -10868,7 +10810,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -10876,7 +10818,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -10884,7 +10826,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -10892,7 +10834,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -10900,7 +10842,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -10908,7 +10850,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -10916,7 +10858,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -10924,7 +10866,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -10932,7 +10874,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -10940,7 +10882,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -10948,7 +10890,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -10956,7 +10898,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -10964,7 +10906,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -10972,7 +10914,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -10980,7 +10922,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -10988,7 +10930,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -10996,7 +10938,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -11004,7 +10946,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -11012,7 +10954,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -11020,7 +10962,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -11028,7 +10970,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -11036,7 +10978,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -11044,7 +10986,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -11052,7 +10994,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -11060,7 +11002,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -11068,7 +11010,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -11076,7 +11018,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -11084,7 +11026,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -11092,7 +11034,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -11100,7 +11042,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -11108,7 +11050,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -11116,7 +11058,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -11124,7 +11066,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -11132,7 +11074,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -11140,7 +11082,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -11148,7 +11090,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -11156,7 +11098,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -11164,7 +11106,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -11172,7 +11114,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -11180,7 +11122,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -11188,7 +11130,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -11196,7 +11138,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -11204,7 +11146,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -11212,7 +11154,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -11220,7 +11162,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -11228,7 +11170,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -11236,7 +11178,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -11244,7 +11186,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -11252,7 +11194,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -11260,7 +11202,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -11268,7 +11210,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -11276,7 +11218,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -11284,7 +11226,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -11292,7 +11234,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -11300,7 +11242,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -11308,7 +11250,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -11316,7 +11258,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -11324,7 +11266,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -11332,7 +11274,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -11340,7 +11282,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -11348,7 +11290,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -11356,7 +11298,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -11364,7 +11306,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -11372,7 +11314,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -11380,7 +11322,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -11388,7 +11330,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -11396,7 +11338,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -11404,7 +11346,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -11412,7 +11354,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -11420,7 +11362,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -11428,7 +11370,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -11436,7 +11378,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -11444,7 +11386,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -11452,7 +11394,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -11460,7 +11402,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -11468,7 +11410,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -11476,7 +11418,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -11484,7 +11426,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -11492,7 +11434,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -11500,7 +11442,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -11508,7 +11450,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -11516,7 +11458,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -11524,7 +11466,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -11532,7 +11474,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -11540,7 +11482,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -11548,7 +11490,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -11556,7 +11498,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -11564,7 +11506,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -11572,7 +11514,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -11580,7 +11522,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -11588,7 +11530,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -11596,7 +11538,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -11604,7 +11546,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -11612,7 +11554,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -11620,7 +11562,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -11628,7 +11570,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -11636,7 +11578,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -11644,7 +11586,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -11652,7 +11594,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -11660,7 +11602,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -11668,7 +11610,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -11676,7 +11618,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -11684,7 +11626,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -11692,7 +11634,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -11700,7 +11642,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -11708,7 +11650,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -11716,7 +11658,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -11724,7 +11666,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -11732,7 +11674,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -11740,7 +11682,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -11748,7 +11690,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -11756,7 +11698,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -11764,7 +11706,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -11772,7 +11714,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -11780,7 +11722,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -11788,7 +11730,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -11796,7 +11738,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -11804,7 +11746,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -11812,7 +11754,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -11820,7 +11762,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -11828,7 +11770,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -11836,7 +11778,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -11844,7 +11786,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -11852,7 +11794,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -11860,7 +11802,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -11868,7 +11810,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -11876,7 +11818,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -11884,7 +11826,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -11892,7 +11834,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -11900,7 +11842,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -11908,7 +11850,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -11916,7 +11858,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -11924,7 +11866,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -11932,7 +11874,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -11940,7 +11882,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -11948,7 +11890,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -11956,7 +11898,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -11964,7 +11906,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -11972,7 +11914,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -11980,7 +11922,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -11988,7 +11930,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -11996,7 +11938,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -12004,7 +11946,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -12012,7 +11954,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -12020,7 +11962,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -12028,7 +11970,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -12036,7 +11978,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -12044,7 +11986,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -12052,7 +11994,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -12060,7 +12002,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -12068,7 +12010,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -12076,7 +12018,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -12084,7 +12026,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -12092,7 +12034,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -12100,7 +12042,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -12108,7 +12050,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -12116,7 +12058,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -12124,7 +12066,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -12132,7 +12074,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -12140,7 +12082,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -12148,7 +12090,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
@@ -12156,7 +12098,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -12164,7 +12106,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -12172,7 +12114,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -12180,7 +12122,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -12188,7 +12130,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -12196,7 +12138,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -12204,7 +12146,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
@@ -12212,7 +12154,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
@@ -12220,7 +12162,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -12228,7 +12170,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -12236,7 +12178,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -12244,7 +12186,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -12252,7 +12194,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -12260,7 +12202,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -12268,7 +12210,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
@@ -12276,7 +12218,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -12284,7 +12226,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -12292,7 +12234,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -12300,7 +12242,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -12308,7 +12250,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -12316,7 +12258,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -12324,7 +12266,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -12332,7 +12274,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -12340,7 +12282,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -12348,7 +12290,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -12356,7 +12298,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -12364,7 +12306,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -12372,7 +12314,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
@@ -12380,7 +12322,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
@@ -12388,7 +12330,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -12396,7 +12338,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -12404,7 +12346,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -12412,7 +12354,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -12420,7 +12362,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -12428,7 +12370,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -12436,7 +12378,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -12444,7 +12386,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -12452,7 +12394,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -12460,7 +12402,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -12468,7 +12410,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -12476,7 +12418,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -12484,7 +12426,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -12492,7 +12434,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -12500,7 +12442,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -12508,7 +12450,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -12516,7 +12458,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -12524,7 +12466,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -12532,7 +12474,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -12540,7 +12482,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -12548,7 +12490,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -12556,7 +12498,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -12564,7 +12506,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -12572,7 +12514,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -12580,7 +12522,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -12588,7 +12530,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -12596,7 +12538,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -12604,7 +12546,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
@@ -12612,7 +12554,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -12620,7 +12562,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -12628,7 +12570,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -12636,7 +12578,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -12644,7 +12586,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -12652,7 +12594,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
@@ -12660,7 +12602,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -12668,7 +12610,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -12676,7 +12618,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -12684,7 +12626,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -12692,7 +12634,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -12700,7 +12642,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -12708,7 +12650,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -12716,7 +12658,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
@@ -12724,7 +12666,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -12732,7 +12674,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -12740,7 +12682,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -12748,7 +12690,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -12756,7 +12698,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -12764,7 +12706,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -12772,7 +12714,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -12780,7 +12722,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -12788,7 +12730,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -12796,7 +12738,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -12804,7 +12746,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -12812,7 +12754,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -12820,7 +12762,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -12828,7 +12770,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -12836,7 +12778,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -12844,7 +12786,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -12852,7 +12794,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -12860,7 +12802,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -12868,7 +12810,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -12876,7 +12818,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
@@ -12884,7 +12826,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
@@ -12892,7 +12834,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -12900,7 +12842,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -12908,7 +12850,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -12916,7 +12858,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -12924,7 +12866,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -12932,7 +12874,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -12940,7 +12882,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -12948,7 +12890,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -12956,7 +12898,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -12964,7 +12906,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -12972,7 +12914,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -12980,7 +12922,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -12988,7 +12930,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
@@ -12996,7 +12938,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
@@ -13004,7 +12946,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -13012,7 +12954,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -13020,7 +12962,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -13028,7 +12970,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -13036,7 +12978,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -13044,7 +12986,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -13052,7 +12994,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
@@ -13060,7 +13002,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -13068,7 +13010,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -13076,7 +13018,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -13084,7 +13026,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -13092,7 +13034,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -13100,7 +13042,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -13108,7 +13050,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
@@ -13116,7 +13058,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -13124,7 +13066,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -13132,7 +13074,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -13140,7 +13082,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -13148,7 +13090,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -13156,7 +13098,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -13164,7 +13106,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
@@ -13172,7 +13114,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -13180,7 +13122,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -13188,7 +13130,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
